--- a/5-Testing/Bug Report.xlsx
+++ b/5-Testing/Bug Report.xlsx
@@ -639,7 +639,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
